--- a/diagramme-de-gant.xlsx
+++ b/diagramme-de-gant.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kennedy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kennedy\Desktop\coucou\tpe-SI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="7476" windowHeight="2808"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="7476" windowHeight="2808"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1182,15 +1182,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:colOff>53340</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1477,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/diagramme-de-gant.xlsx
+++ b/diagramme-de-gant.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="7476" windowHeight="2808"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="7476" windowHeight="2808"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -262,22 +262,22 @@
                   <c:v>45021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45025</c:v>
+                  <c:v>45031</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45028</c:v>
+                  <c:v>45034</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45030</c:v>
+                  <c:v>45036</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45034</c:v>
+                  <c:v>45041</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45037</c:v>
+                  <c:v>45044</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45047</c:v>
+                  <c:v>45054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -434,7 +434,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -443,7 +443,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3</c:v>
@@ -530,7 +530,7 @@
         <c:axId val="281729775"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="45051"/>
+          <c:max val="45059"/>
           <c:min val="45021"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1477,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1553,11 +1553,11 @@
         <v>45021</v>
       </c>
       <c r="C4" s="5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D4" s="8">
         <f>B4+C4</f>
-        <v>45025</v>
+        <v>45031</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2"/>
@@ -1568,14 +1568,14 @@
       </c>
       <c r="B5" s="8">
         <f>B4+C4</f>
-        <v>45025</v>
+        <v>45031</v>
       </c>
       <c r="C5" s="5">
         <v>3</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" ref="D5:D10" si="0">B5+C5</f>
-        <v>45028</v>
+        <v>45034</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
@@ -1586,14 +1586,14 @@
       </c>
       <c r="B6" s="8">
         <f t="shared" ref="B6:B10" si="1">B5+C5</f>
-        <v>45028</v>
+        <v>45034</v>
       </c>
       <c r="C6" s="5">
         <v>2</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
-        <v>45030</v>
+        <v>45036</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2"/>
@@ -1604,14 +1604,14 @@
       </c>
       <c r="B7" s="8">
         <f t="shared" si="1"/>
-        <v>45030</v>
+        <v>45036</v>
       </c>
       <c r="C7" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="0"/>
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
@@ -1622,14 +1622,14 @@
       </c>
       <c r="B8" s="8">
         <f t="shared" si="1"/>
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="C8" s="5">
         <v>3</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
-        <v>45037</v>
+        <v>45044</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
@@ -1640,14 +1640,14 @@
       </c>
       <c r="B9" s="8">
         <f t="shared" si="1"/>
-        <v>45037</v>
+        <v>45044</v>
       </c>
       <c r="C9" s="5">
         <v>10</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="0"/>
-        <v>45047</v>
+        <v>45054</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
@@ -1658,14 +1658,14 @@
       </c>
       <c r="B10" s="8">
         <f t="shared" si="1"/>
-        <v>45047</v>
+        <v>45054</v>
       </c>
       <c r="C10" s="5">
         <v>4</v>
       </c>
       <c r="D10" s="8">
         <f t="shared" si="0"/>
-        <v>45051</v>
+        <v>45058</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
